--- a/data/20170127_GEP00001/NGSpreliminaryData/SLX-13775.vardict.variants.xlsx
+++ b/data/20170127_GEP00001/NGSpreliminaryData/SLX-13775.vardict.variants.xlsx
@@ -256,35 +256,35 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>intron</t>
+          <t>intron,non_coding_transcript</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>STAT3</t>
+          <t>TMEM132B</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>c.274-38T&gt;C</t>
+          <t>n.32-68376G&gt;T</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>chr17</t>
+          <t>chr12</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>4.0497713E7</v>
+        <v>1.25765622E8</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>T</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -303,10 +303,10 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="P2" t="n">
-        <v>1651.0</v>
+        <v>150774.0</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -314,44 +314,39 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>51.0</v>
+        <v>205.0</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr12_125765583</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>ENSG00000168610</t>
+          <t>ENSG00000139364</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>3 of 23</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>rs751738499</t>
+          <t>1 of 1</t>
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>6.0</v>
+        <v>17.0</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>GCAGC</t>
+          <t>GTGGA</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>A/G</t>
+          <t>G/T</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>GACCA</t>
+          <t>AGGGG</t>
         </is>
       </c>
     </row>
@@ -368,37 +363,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>intron,non_coding_transcript</t>
+          <t>intron</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>TMEM132B</t>
+          <t>STAT3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>n.32-68376G&gt;T</t>
+          <t>c.274-38T&gt;C</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>chr12</t>
+          <t>chr17</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1.25765622E8</v>
+        <v>4.0497713E7</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>G</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
           <t>IGV</t>
@@ -415,10 +410,10 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="P3" t="n">
-        <v>150774.0</v>
+        <v>1651.0</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -426,39 +421,44 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>205.0</v>
+        <v>51.0</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>STAT3.3.off1</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>ENSG00000139364</t>
+          <t>ENSG00000168610</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1 of 1</t>
+          <t>3 of 23</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>rs751738499</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>17.0</v>
+        <v>6.0</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>GTGGA</t>
+          <t>GCAGC</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>G/T</t>
+          <t>A/G</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>AGGGG</t>
+          <t>GACCA</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>STAT3.3.off1</t>
+          <t>GRCh37.p13_chr12_125765583</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>STAT3.3.off1</t>
+          <t>GRCh37.p13_chr12_125765583</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>STAT3.3.off1</t>
+          <t>GRCh37.p13_chr12_125765583</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>STAT3.3.off2</t>
+          <t>GRCh37.p13_chr1_44880861</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>STAT3.1.off2</t>
+          <t>GRCh37.p13_chr19_56539017</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>STAT3.1.in</t>
+          <t>GRCh37.p13_chr17_40498615</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>STAT3.1.in</t>
+          <t>GRCh37.p13_chr17_40498615</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -2945,36 +2945,36 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>synonymous</t>
+          <t>nonsynonymous</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>CTTNBP2NL</t>
+          <t>NLRP5</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>c.234T&gt;C</t>
+          <t>c.1514T&gt;G</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>p.N78=</t>
+          <t>p.F505C</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>aaT/aaC</t>
+          <t>tTt/tGt</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>chr1</t>
+          <t>chr19</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1.12991698E8</v>
+        <v>5.6539113E7</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="L24" s="1" t="inlineStr">
@@ -3002,10 +3002,10 @@
         </is>
       </c>
       <c r="O24" t="n">
-        <v>0.576</v>
+        <v>0.011</v>
       </c>
       <c r="P24" t="n">
-        <v>19884.0</v>
+        <v>23645.0</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -3013,49 +3013,49 @@
         </is>
       </c>
       <c r="R24" t="n">
-        <v>498.0</v>
+        <v>223.0</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>STAT3.1.off1</t>
+          <t>GRCh37.p13_chr19_56539017</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>ENSG00000143079</t>
+          <t>ENSG00000171487</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>4 of 6</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>rs2256883</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>T:0.4746</t>
+          <t>7 of 15</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>deleterious(0)</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>probably_damaging(0.987)</t>
         </is>
       </c>
       <c r="AC24" t="n">
-        <v>22.0</v>
+        <v>56.0</v>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>ACAAA</t>
+          <t>CGCTT</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>T/C</t>
+          <t>T/G</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>CCACT</t>
+          <t>TGTGT</t>
         </is>
       </c>
     </row>
@@ -3072,36 +3072,36 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>nonsynonymous</t>
+          <t>synonymous</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NLRP5</t>
+          <t>CTTNBP2NL</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>c.1514T&gt;G</t>
+          <t>c.234T&gt;C</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>p.F505C</t>
+          <t>p.N78=</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>tTt/tGt</t>
+          <t>aaT/aaC</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>chr19</t>
+          <t>chr1</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>5.6539113E7</v>
+        <v>1.12991698E8</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L25" s="1" t="inlineStr">
@@ -3129,10 +3129,10 @@
         </is>
       </c>
       <c r="O25" t="n">
-        <v>0.011</v>
+        <v>0.576</v>
       </c>
       <c r="P25" t="n">
-        <v>23645.0</v>
+        <v>19884.0</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -3140,49 +3140,49 @@
         </is>
       </c>
       <c r="R25" t="n">
-        <v>223.0</v>
+        <v>498.0</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>STAT3.1.off2</t>
+          <t>GRCh37.p13_chr1_112991561</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>ENSG00000171487</t>
+          <t>ENSG00000143079</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>7 of 15</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>deleterious(0)</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>probably_damaging(0.987)</t>
+          <t>4 of 6</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>rs2256883</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>T:0.4746</t>
         </is>
       </c>
       <c r="AC25" t="n">
-        <v>56.0</v>
+        <v>22.0</v>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>CGCTT</t>
+          <t>ACAAA</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>T/G</t>
+          <t>T/C</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>TGTGT</t>
+          <t>CCACT</t>
         </is>
       </c>
     </row>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>STAT3.1.in</t>
+          <t>GRCh37.p13_chr17_40498615</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>STAT3.1.in</t>
+          <t>GRCh37.p13_chr17_40498615</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
@@ -3448,40 +3448,40 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>CTTNBP2NL</t>
+          <t>NLRP5</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>c.221C&gt;A</t>
+          <t>c.1514T&gt;G</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>p.P74Q</t>
+          <t>p.F505C</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>cCa/cAa</t>
+          <t>tTt/tGt</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>chr1</t>
+          <t>chr19</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1.12991685E8</v>
+        <v>5.6539113E7</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="L28" s="1" t="inlineStr">
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="O28" t="n">
-        <v>0.008</v>
+        <v>0.012</v>
       </c>
       <c r="P28" t="n">
-        <v>21495.0</v>
+        <v>28716.0</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -3511,21 +3511,21 @@
         </is>
       </c>
       <c r="R28" t="n">
-        <v>243.0</v>
+        <v>232.0</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>STAT3.1.off1</t>
+          <t>GRCh37.p13_chr19_56539017</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>ENSG00000143079</t>
+          <t>ENSG00000171487</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>4 of 6</t>
+          <t>7 of 15</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3535,25 +3535,25 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>probably_damaging(1)</t>
+          <t>probably_damaging(0.987)</t>
         </is>
       </c>
       <c r="AC28" t="n">
-        <v>35.0</v>
+        <v>56.0</v>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>GCAGC</t>
+          <t>CGCTT</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>C/A</t>
+          <t>T/G</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>AGTCT</t>
+          <t>TGTGT</t>
         </is>
       </c>
     </row>
@@ -3575,40 +3575,40 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NLRP5</t>
+          <t>CTTNBP2NL</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>c.1514T&gt;G</t>
+          <t>c.221C&gt;A</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>p.F505C</t>
+          <t>p.P74Q</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>tTt/tGt</t>
+          <t>cCa/cAa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>chr19</t>
+          <t>chr1</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>5.6539113E7</v>
+        <v>1.12991685E8</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L29" s="1" t="inlineStr">
@@ -3627,10 +3627,10 @@
         </is>
       </c>
       <c r="O29" t="n">
-        <v>0.012</v>
+        <v>0.008</v>
       </c>
       <c r="P29" t="n">
-        <v>28716.0</v>
+        <v>21495.0</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -3638,21 +3638,21 @@
         </is>
       </c>
       <c r="R29" t="n">
-        <v>232.0</v>
+        <v>243.0</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>STAT3.1.off2</t>
+          <t>GRCh37.p13_chr1_112991561</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>ENSG00000171487</t>
+          <t>ENSG00000143079</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>7 of 15</t>
+          <t>4 of 6</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -3662,25 +3662,25 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>probably_damaging(0.987)</t>
+          <t>probably_damaging(1)</t>
         </is>
       </c>
       <c r="AC29" t="n">
-        <v>56.0</v>
+        <v>35.0</v>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>CGCTT</t>
+          <t>GCAGC</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>T/G</t>
+          <t>C/A</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>TGTGT</t>
+          <t>AGTCT</t>
         </is>
       </c>
     </row>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>STAT3.1.off2</t>
+          <t>GRCh37.p13_chr19_56539017</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
@@ -3896,7 +3896,7 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>STAT3.1.off2</t>
+          <t>GRCh37.p13_chr19_56539017</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>STAT3.1.off1</t>
+          <t>GRCh37.p13_chr1_112991561</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
@@ -4155,7 +4155,7 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>STAT3.1.in</t>
+          <t>GRCh37.p13_chr17_40498615</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
@@ -4282,7 +4282,7 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>STAT3.1.off2</t>
+          <t>GRCh37.p13_chr19_56539017</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
@@ -4409,7 +4409,7 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>STAT3.1.in</t>
+          <t>GRCh37.p13_chr17_40498615</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
@@ -4536,7 +4536,7 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>STAT3.1.off2</t>
+          <t>GRCh37.p13_chr19_56539017</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>STAT3.1.off2</t>
+          <t>GRCh37.p13_chr19_56539017</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
@@ -4790,7 +4790,7 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>STAT3.1.off2</t>
+          <t>GRCh37.p13_chr19_56539017</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
@@ -4922,7 +4922,7 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>STAT3.1.off2</t>
+          <t>GRCh37.p13_chr19_56539017</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>STAT3.1.off2</t>
+          <t>GRCh37.p13_chr19_56539017</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>STAT3.1.in</t>
+          <t>GRCh37.p13_chr17_40498615</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
@@ -5298,7 +5298,7 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>STAT3.1.in</t>
+          <t>GRCh37.p13_chr17_40498615</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>STAT3.1.off2</t>
+          <t>GRCh37.p13_chr19_56539017</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>STAT3.1.off2</t>
+          <t>GRCh37.p13_chr19_56539017</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
@@ -5684,7 +5684,7 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>STAT3.1.off2</t>
+          <t>GRCh37.p13_chr19_56539017</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
@@ -5816,7 +5816,7 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>STAT3.1.off2</t>
+          <t>GRCh37.p13_chr19_56539017</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>STAT3.1.off2</t>
+          <t>GRCh37.p13_chr19_56539017</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
@@ -6060,7 +6060,7 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
@@ -6177,7 +6177,7 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
@@ -6426,7 +6426,7 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>STAT3.2.off1</t>
+          <t>GRCh37.p13_chr10_50174620</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
@@ -6471,36 +6471,26 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>nonsynonymous</t>
+          <t>intron</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>STAT3</t>
+          <t>WDFY4</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>c.308G&gt;A</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>p.R103Q</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>cGg/cAg</t>
+          <t>c.8584+36C&gt;A</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>chr17</t>
+          <t>chr10</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>4.0497641E7</v>
+        <v>5.0174754E7</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -6509,7 +6499,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L52" s="1" t="inlineStr">
@@ -6528,10 +6518,10 @@
         </is>
       </c>
       <c r="O52" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="P52" t="n">
-        <v>857.0</v>
+        <v>17490.0</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -6539,49 +6529,39 @@
         </is>
       </c>
       <c r="R52" t="n">
-        <v>76.0</v>
+        <v>145.0</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr10_50174620</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>ENSG00000168610</t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>4 of 24</t>
-        </is>
-      </c>
-      <c r="Y52" t="inlineStr">
-        <is>
-          <t>tolerated(0.57)</t>
-        </is>
-      </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>benign(0.278)</t>
+          <t>ENSG00000128815</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>54 of 60</t>
         </is>
       </c>
       <c r="AC52" t="n">
-        <v>78.0</v>
+        <v>36.0</v>
       </c>
       <c r="AE52" t="inlineStr">
         <is>
-          <t>CAATC</t>
+          <t>CCTGT</t>
         </is>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>C/T</t>
+          <t>C/A</t>
         </is>
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t>GGGCA</t>
+          <t>CCAGG</t>
         </is>
       </c>
     </row>
@@ -6608,17 +6588,17 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>c.304G&gt;A</t>
+          <t>c.308G&gt;A</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>p.A102T</t>
+          <t>p.R103Q</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Gcc/Acc</t>
+          <t>cGg/cAg</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -6627,7 +6607,7 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>4.0497645E7</v>
+        <v>4.0497641E7</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -6655,7 +6635,7 @@
         </is>
       </c>
       <c r="O53" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="P53" t="n">
         <v>857.0</v>
@@ -6666,11 +6646,11 @@
         </is>
       </c>
       <c r="R53" t="n">
-        <v>45.0</v>
+        <v>76.0</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
@@ -6685,20 +6665,20 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>deleterious(0)</t>
+          <t>tolerated(0.57)</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>probably_damaging(0.96)</t>
+          <t>benign(0.278)</t>
         </is>
       </c>
       <c r="AC53" t="n">
-        <v>74.0</v>
+        <v>78.0</v>
       </c>
       <c r="AE53" t="inlineStr">
         <is>
-          <t>CCGGG</t>
+          <t>CAATC</t>
         </is>
       </c>
       <c r="AF53" t="inlineStr">
@@ -6708,7 +6688,7 @@
       </c>
       <c r="AG53" t="inlineStr">
         <is>
-          <t>AATCT</t>
+          <t>GGGCA</t>
         </is>
       </c>
     </row>
@@ -6725,7 +6705,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>intron</t>
+          <t>nonsynonymous</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -6735,7 +6715,17 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>c.274-39C&gt;T</t>
+          <t>c.304G&gt;A</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>p.A102T</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Gcc/Acc</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -6744,16 +6734,16 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>4.0497714E7</v>
+        <v>4.0497645E7</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="L54" s="1" t="inlineStr">
@@ -6772,10 +6762,10 @@
         </is>
       </c>
       <c r="O54" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="P54" t="n">
-        <v>859.0</v>
+        <v>857.0</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -6783,11 +6773,11 @@
         </is>
       </c>
       <c r="R54" t="n">
-        <v>61.0</v>
+        <v>45.0</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
@@ -6795,27 +6785,37 @@
           <t>ENSG00000168610</t>
         </is>
       </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>3 of 23</t>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>4 of 24</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>deleterious(0)</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>probably_damaging(0.96)</t>
         </is>
       </c>
       <c r="AC54" t="n">
-        <v>5.0</v>
+        <v>74.0</v>
       </c>
       <c r="AE54" t="inlineStr">
         <is>
-          <t>CAGCA</t>
+          <t>CCGGG</t>
         </is>
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>G/A</t>
+          <t>C/T</t>
         </is>
       </c>
       <c r="AG54" t="inlineStr">
         <is>
-          <t>ACCAT</t>
+          <t>AATCT</t>
         </is>
       </c>
     </row>
@@ -6837,25 +6837,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>WDFY4</t>
+          <t>STAT3</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>c.8584+36C&gt;A</t>
+          <t>c.274-39C&gt;T</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>chr10</t>
+          <t>chr17</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>5.0174754E7</v>
+        <v>4.0497714E7</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -6879,10 +6879,10 @@
         </is>
       </c>
       <c r="O55" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="P55" t="n">
-        <v>17490.0</v>
+        <v>859.0</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -6890,39 +6890,39 @@
         </is>
       </c>
       <c r="R55" t="n">
-        <v>145.0</v>
+        <v>61.0</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>STAT3.2.off1</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>ENSG00000128815</t>
+          <t>ENSG00000168610</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>54 of 60</t>
+          <t>3 of 23</t>
         </is>
       </c>
       <c r="AC55" t="n">
-        <v>36.0</v>
+        <v>5.0</v>
       </c>
       <c r="AE55" t="inlineStr">
         <is>
-          <t>CCTGT</t>
+          <t>CAGCA</t>
         </is>
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>C/A</t>
+          <t>G/A</t>
         </is>
       </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t>CCAGG</t>
+          <t>ACCAT</t>
         </is>
       </c>
     </row>
@@ -7001,7 +7001,7 @@
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
@@ -7128,7 +7128,7 @@
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
@@ -7255,7 +7255,7 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
@@ -7387,7 +7387,7 @@
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U59" t="inlineStr">
@@ -7504,7 +7504,7 @@
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>STAT3.1.off2</t>
+          <t>GRCh37.p13_chr19_56539017</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
@@ -7621,7 +7621,7 @@
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U61" t="inlineStr">
@@ -7748,7 +7748,7 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
@@ -7865,7 +7865,7 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
@@ -7977,7 +7977,7 @@
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>STAT3.3.off2</t>
+          <t>GRCh37.p13_chr1_44880861</t>
         </is>
       </c>
       <c r="U64" t="inlineStr">
@@ -8084,7 +8084,7 @@
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>STAT3.3.off2</t>
+          <t>GRCh37.p13_chr1_44880861</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
@@ -8191,7 +8191,7 @@
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
@@ -8298,7 +8298,7 @@
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>STAT3.3.off2</t>
+          <t>GRCh37.p13_chr1_44880861</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
@@ -8405,7 +8405,7 @@
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>STAT3.3.off1</t>
+          <t>GRCh37.p13_chr12_125765583</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
@@ -8512,7 +8512,7 @@
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>STAT3.3.off2</t>
+          <t>GRCh37.p13_chr1_44880861</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
@@ -8629,7 +8629,7 @@
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
@@ -8756,7 +8756,7 @@
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U71" t="inlineStr">
@@ -8883,7 +8883,7 @@
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>STAT3.2.off1</t>
+          <t>GRCh37.p13_chr10_50174620</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
@@ -9200,47 +9200,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>frameshift</t>
+          <t>intron,non_coding_transcript</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>STAT3</t>
+          <t>TMEM132B</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>c.330_331dupGG</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>p.E111Gfs*28</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>gaa/gGGaa</t>
+          <t>n.32-68308_32-68307delGG</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>chr17</t>
+          <t>chr12</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>4.0497617E7</v>
+        <v>1.25765688E8</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>TGG</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>T</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>TCC</t>
-        </is>
-      </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
           <t>IGV</t>
@@ -9257,10 +9247,10 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>0.397</v>
+        <v>0.227</v>
       </c>
       <c r="P2" t="n">
-        <v>13568.0</v>
+        <v>121140.0</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -9268,42 +9258,42 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>451.0</v>
+        <v>555.0</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr12_125765583</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>ENSG00000168610</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>4 of 24</t>
+          <t>ENSG00000139364</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>1 of 1</t>
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>58.0</v>
+        <v>38.0</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.0</v>
+        <v>-2.0</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>ATTCT</t>
+          <t>CCTAG</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>T/TCC</t>
+          <t>TGG/T</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>CCCAC</t>
+          <t>GAAGA</t>
         </is>
       </c>
     </row>
@@ -9320,7 +9310,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>stop_gained,frameshift</t>
+          <t>frameshift</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -9330,17 +9320,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>c.329_330insA</t>
+          <t>c.330_331dupGG</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>p.W110*</t>
+          <t>p.E111Gfs*28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>tgg/tgAg</t>
+          <t>gaa/gGGaa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -9349,16 +9339,16 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>4.0497619E7</v>
+        <v>4.0497617E7</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>TCC</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr">
@@ -9377,10 +9367,10 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>0.576</v>
+        <v>0.397</v>
       </c>
       <c r="P3" t="n">
-        <v>13599.0</v>
+        <v>13568.0</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -9388,11 +9378,11 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>472.0</v>
+        <v>451.0</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -9406,24 +9396,24 @@
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>60.0</v>
+        <v>58.0</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>TCTTC</t>
+          <t>ATTCT</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>C/CT</t>
+          <t>T/TCC</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>CACAG</t>
+          <t>CCCAC</t>
         </is>
       </c>
     </row>
@@ -9440,35 +9430,45 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>intron,non_coding_transcript</t>
+          <t>stop_gained,frameshift</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TMEM132B</t>
+          <t>STAT3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>n.32-68308_32-68307delGG</t>
+          <t>c.329_330insA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>p.W110*</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>tgg/tgAg</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>chr12</t>
+          <t>chr17</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1.25765688E8</v>
+        <v>4.0497619E7</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>TGG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="L4" s="1" t="inlineStr">
@@ -9487,10 +9487,10 @@
         </is>
       </c>
       <c r="O4" t="n">
-        <v>0.227</v>
+        <v>0.576</v>
       </c>
       <c r="P4" t="n">
-        <v>121140.0</v>
+        <v>13599.0</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -9498,42 +9498,42 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>555.0</v>
+        <v>472.0</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>STAT3.3.off1</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>ENSG00000139364</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>1 of 1</t>
+          <t>ENSG00000168610</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>4 of 24</t>
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>38.0</v>
+        <v>60.0</v>
       </c>
       <c r="AD4" t="n">
-        <v>-2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>CCTAG</t>
+          <t>TCTTC</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>TGG/T</t>
+          <t>C/CT</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>GAAGA</t>
+          <t>CACAG</t>
         </is>
       </c>
     </row>
@@ -9622,7 +9622,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -9742,7 +9742,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -9862,7 +9862,7 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -9982,7 +9982,7 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -10102,7 +10102,7 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -10222,7 +10222,7 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -10342,7 +10342,7 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -10462,7 +10462,7 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -10582,7 +10582,7 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -10702,7 +10702,7 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -10822,7 +10822,7 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -10942,7 +10942,7 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
@@ -11062,7 +11062,7 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -11182,7 +11182,7 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
@@ -11302,7 +11302,7 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -11422,7 +11422,7 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -11542,7 +11542,7 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -11662,7 +11662,7 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
@@ -11782,7 +11782,7 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -11902,7 +11902,7 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
@@ -12022,7 +12022,7 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
@@ -12142,7 +12142,7 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
@@ -12262,7 +12262,7 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
@@ -12382,7 +12382,7 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
@@ -12502,7 +12502,7 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
@@ -12622,7 +12622,7 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
@@ -12742,7 +12742,7 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
@@ -12862,7 +12862,7 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
@@ -12982,7 +12982,7 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
@@ -13102,7 +13102,7 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
@@ -13222,7 +13222,7 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
@@ -13342,7 +13342,7 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
@@ -13462,7 +13462,7 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
@@ -13582,7 +13582,7 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>STAT3.1.in</t>
+          <t>GRCh37.p13_chr17_40498615</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
@@ -13702,7 +13702,7 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>STAT3.1.in</t>
+          <t>GRCh37.p13_chr17_40498615</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
@@ -13822,7 +13822,7 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>STAT3.1.in</t>
+          <t>GRCh37.p13_chr17_40498615</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
@@ -13942,7 +13942,7 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>STAT3.1.in</t>
+          <t>GRCh37.p13_chr17_40498615</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
@@ -14062,7 +14062,7 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>STAT3.1.in</t>
+          <t>GRCh37.p13_chr17_40498615</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
@@ -14182,7 +14182,7 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>STAT3.1.in</t>
+          <t>GRCh37.p13_chr17_40498615</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
@@ -14302,7 +14302,7 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>STAT3.1.in</t>
+          <t>GRCh37.p13_chr17_40498615</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
@@ -14422,7 +14422,7 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>STAT3.1.in</t>
+          <t>GRCh37.p13_chr17_40498615</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
@@ -14542,7 +14542,7 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>STAT3.1.in</t>
+          <t>GRCh37.p13_chr17_40498615</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
@@ -14662,7 +14662,7 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>STAT3.1.in</t>
+          <t>GRCh37.p13_chr17_40498615</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
@@ -14782,7 +14782,7 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>STAT3.1.in</t>
+          <t>GRCh37.p13_chr17_40498615</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
@@ -14902,7 +14902,7 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>STAT3.1.in</t>
+          <t>GRCh37.p13_chr17_40498615</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
@@ -15022,7 +15022,7 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>STAT3.1.in</t>
+          <t>GRCh37.p13_chr17_40498615</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
@@ -15142,7 +15142,7 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>STAT3.1.in</t>
+          <t>GRCh37.p13_chr17_40498615</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
@@ -15262,7 +15262,7 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>STAT3.1.in</t>
+          <t>GRCh37.p13_chr17_40498615</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
@@ -15382,7 +15382,7 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>STAT3.1.in</t>
+          <t>GRCh37.p13_chr17_40498615</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
@@ -15502,7 +15502,7 @@
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>STAT3.1.in</t>
+          <t>GRCh37.p13_chr17_40498615</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
@@ -15622,7 +15622,7 @@
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>STAT3.1.in</t>
+          <t>GRCh37.p13_chr17_40498615</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
@@ -15742,7 +15742,7 @@
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>STAT3.1.in</t>
+          <t>GRCh37.p13_chr17_40498615</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
@@ -15862,7 +15862,7 @@
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>STAT3.1.in</t>
+          <t>GRCh37.p13_chr17_40498615</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
@@ -15982,7 +15982,7 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>STAT3.1.in</t>
+          <t>GRCh37.p13_chr17_40498615</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
@@ -16102,7 +16102,7 @@
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>STAT3.1.in</t>
+          <t>GRCh37.p13_chr17_40498615</t>
         </is>
       </c>
       <c r="U59" t="inlineStr">
@@ -16222,7 +16222,7 @@
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>STAT3.1.in</t>
+          <t>GRCh37.p13_chr17_40498615</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
@@ -16342,7 +16342,7 @@
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>STAT3.1.in</t>
+          <t>GRCh37.p13_chr17_40498615</t>
         </is>
       </c>
       <c r="U61" t="inlineStr">
@@ -16462,7 +16462,7 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>STAT3.1.in</t>
+          <t>GRCh37.p13_chr17_40498615</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
@@ -16582,7 +16582,7 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>STAT3.1.in</t>
+          <t>GRCh37.p13_chr17_40498615</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
@@ -16702,7 +16702,7 @@
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>STAT3.1.in</t>
+          <t>GRCh37.p13_chr17_40498615</t>
         </is>
       </c>
       <c r="U64" t="inlineStr">
@@ -16822,7 +16822,7 @@
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
@@ -16942,7 +16942,7 @@
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
@@ -17062,7 +17062,7 @@
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
@@ -17182,7 +17182,7 @@
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
@@ -17302,7 +17302,7 @@
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
@@ -17422,7 +17422,7 @@
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
@@ -17542,7 +17542,7 @@
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U71" t="inlineStr">
@@ -17662,7 +17662,7 @@
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
@@ -17782,7 +17782,7 @@
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
@@ -17902,7 +17902,7 @@
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
@@ -18022,7 +18022,7 @@
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U75" t="inlineStr">
@@ -18142,7 +18142,7 @@
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
@@ -18262,7 +18262,7 @@
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
@@ -18382,7 +18382,7 @@
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U78" t="inlineStr">
@@ -18502,7 +18502,7 @@
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U79" t="inlineStr">
@@ -18622,7 +18622,7 @@
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U80" t="inlineStr">
@@ -18742,7 +18742,7 @@
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U81" t="inlineStr">
@@ -18862,7 +18862,7 @@
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
@@ -18982,7 +18982,7 @@
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U83" t="inlineStr">
@@ -19102,7 +19102,7 @@
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
@@ -19222,7 +19222,7 @@
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U85" t="inlineStr">
@@ -19342,7 +19342,7 @@
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U86" t="inlineStr">
@@ -19462,7 +19462,7 @@
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U87" t="inlineStr">
@@ -19582,7 +19582,7 @@
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U88" t="inlineStr">
@@ -19702,7 +19702,7 @@
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U89" t="inlineStr">
@@ -19822,7 +19822,7 @@
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U90" t="inlineStr">
@@ -19942,7 +19942,7 @@
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U91" t="inlineStr">
@@ -20062,7 +20062,7 @@
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
@@ -20182,7 +20182,7 @@
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U93" t="inlineStr">
@@ -20302,7 +20302,7 @@
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U94" t="inlineStr">
@@ -20422,7 +20422,7 @@
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U95" t="inlineStr">
@@ -20542,7 +20542,7 @@
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U96" t="inlineStr">
@@ -20662,7 +20662,7 @@
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
@@ -20782,7 +20782,7 @@
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U98" t="inlineStr">
@@ -20902,7 +20902,7 @@
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U99" t="inlineStr">
@@ -21022,7 +21022,7 @@
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U100" t="inlineStr">
@@ -21142,7 +21142,7 @@
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U101" t="inlineStr">
@@ -21262,7 +21262,7 @@
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U102" t="inlineStr">
@@ -21382,7 +21382,7 @@
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U103" t="inlineStr">
@@ -21502,7 +21502,7 @@
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U104" t="inlineStr">
@@ -21622,7 +21622,7 @@
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U105" t="inlineStr">
@@ -21742,7 +21742,7 @@
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U106" t="inlineStr">
@@ -21862,7 +21862,7 @@
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U107" t="inlineStr">
@@ -21982,7 +21982,7 @@
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U108" t="inlineStr">
@@ -22030,7 +22030,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>frameshift</t>
+          <t>inframe_deletion</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -22040,17 +22040,17 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>c.164_167delTGGT</t>
+          <t>c.310_321delATTGTGGCCCGG</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>p.L55Cfs*82</t>
+          <t>p.I104_R107del</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>tTGGTg/tg</t>
+          <t>ATTGTGGCCCGG/-</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -22059,16 +22059,16 @@
         </is>
       </c>
       <c r="I109" t="n">
-        <v>4.0498692E7</v>
+        <v>4.0497627E7</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>CACCA</t>
+          <t>ACCGGGCCACAAT</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L109" s="1" t="inlineStr">
@@ -22087,10 +22087,10 @@
         </is>
       </c>
       <c r="O109" t="n">
-        <v>0.988</v>
+        <v>0.012</v>
       </c>
       <c r="P109" t="n">
-        <v>34738.0</v>
+        <v>412.0</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -22098,11 +22098,11 @@
         </is>
       </c>
       <c r="R109" t="n">
-        <v>568.0</v>
+        <v>84.0</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>STAT3.1.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U109" t="inlineStr">
@@ -22112,28 +22112,28 @@
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>3 of 24</t>
+          <t>4 of 24</t>
         </is>
       </c>
       <c r="AC109" t="n">
-        <v>54.0</v>
+        <v>68.0</v>
       </c>
       <c r="AD109" t="n">
-        <v>-4.0</v>
+        <v>-12.0</v>
       </c>
       <c r="AE109" t="inlineStr">
         <is>
-          <t>TGAAA</t>
+          <t>CAGGC</t>
         </is>
       </c>
       <c r="AF109" t="inlineStr">
         <is>
-          <t>CACCA/C</t>
+          <t>ACCGGGCCACAAT/A</t>
         </is>
       </c>
       <c r="AG109" t="inlineStr">
         <is>
-          <t>AAGTG</t>
+          <t>CCGGG</t>
         </is>
       </c>
     </row>
@@ -22150,7 +22150,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>inframe_deletion</t>
+          <t>frameshift</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -22160,17 +22160,17 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>c.310_321delATTGTGGCCCGG</t>
+          <t>c.315_316delGG</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>p.I104_R107del</t>
+          <t>p.A106Pfs*65</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>ATTGTGGCCCGG/-</t>
+          <t>gtGGcc/gtcc</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -22179,16 +22179,16 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>4.0497627E7</v>
+        <v>4.0497632E7</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>ACCGGGCCACAAT</t>
+          <t>GCC</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="L110" s="1" t="inlineStr">
@@ -22210,7 +22210,7 @@
         <v>0.012</v>
       </c>
       <c r="P110" t="n">
-        <v>412.0</v>
+        <v>413.0</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -22218,11 +22218,11 @@
         </is>
       </c>
       <c r="R110" t="n">
-        <v>84.0</v>
+        <v>74.0</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U110" t="inlineStr">
@@ -22236,24 +22236,24 @@
         </is>
       </c>
       <c r="AC110" t="n">
-        <v>68.0</v>
+        <v>73.0</v>
       </c>
       <c r="AD110" t="n">
-        <v>-12.0</v>
+        <v>-2.0</v>
       </c>
       <c r="AE110" t="inlineStr">
         <is>
-          <t>CAGGC</t>
+          <t>ACCGG</t>
         </is>
       </c>
       <c r="AF110" t="inlineStr">
         <is>
-          <t>ACCGGGCCACAAT/A</t>
+          <t>GCC/G</t>
         </is>
       </c>
       <c r="AG110" t="inlineStr">
         <is>
-          <t>CCGGG</t>
+          <t>ACAAT</t>
         </is>
       </c>
     </row>
@@ -22280,17 +22280,17 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>c.315_316delGG</t>
+          <t>c.315_316insA</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>p.A106Pfs*65</t>
+          <t>p.A106Sfs*66</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>gtGGcc/gtcc</t>
+          <t>-/A</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -22299,16 +22299,16 @@
         </is>
       </c>
       <c r="I111" t="n">
-        <v>4.0497632E7</v>
+        <v>4.0497633E7</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>GCC</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="L111" s="1" t="inlineStr">
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="O111" t="n">
-        <v>0.012</v>
+        <v>0.511</v>
       </c>
       <c r="P111" t="n">
         <v>413.0</v>
@@ -22338,42 +22338,42 @@
         </is>
       </c>
       <c r="R111" t="n">
+        <v>281.0</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>GRCh37.p13_chr17_40497540</t>
+        </is>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>ENSG00000168610</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>4 of 24</t>
+        </is>
+      </c>
+      <c r="AC111" t="n">
         <v>74.0</v>
       </c>
-      <c r="S111" t="inlineStr">
-        <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
-        </is>
-      </c>
-      <c r="U111" t="inlineStr">
-        <is>
-          <t>ENSG00000168610</t>
-        </is>
-      </c>
-      <c r="V111" t="inlineStr">
-        <is>
-          <t>4 of 24</t>
-        </is>
-      </c>
-      <c r="AC111" t="n">
-        <v>73.0</v>
-      </c>
       <c r="AD111" t="n">
-        <v>-2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE111" t="inlineStr">
         <is>
-          <t>ACCGG</t>
+          <t>CCGGG</t>
         </is>
       </c>
       <c r="AF111" t="inlineStr">
         <is>
-          <t>GCC/G</t>
+          <t>C/CT</t>
         </is>
       </c>
       <c r="AG111" t="inlineStr">
         <is>
-          <t>ACAAT</t>
+          <t>CACAA</t>
         </is>
       </c>
     </row>
@@ -22400,17 +22400,17 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>c.315_316insA</t>
+          <t>c.164_167delTGGT</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>p.A106Sfs*66</t>
+          <t>p.L55Cfs*82</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>-/A</t>
+          <t>tTGGTg/tg</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -22419,18 +22419,18 @@
         </is>
       </c>
       <c r="I112" t="n">
-        <v>4.0497633E7</v>
+        <v>4.0498692E7</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
+          <t>CACCA</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
           <t>C</t>
         </is>
       </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
       <c r="L112" s="1" t="inlineStr">
         <is>
           <t>IGV</t>
@@ -22447,10 +22447,10 @@
         </is>
       </c>
       <c r="O112" t="n">
-        <v>0.511</v>
+        <v>0.988</v>
       </c>
       <c r="P112" t="n">
-        <v>413.0</v>
+        <v>34738.0</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -22458,11 +22458,11 @@
         </is>
       </c>
       <c r="R112" t="n">
-        <v>281.0</v>
+        <v>568.0</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40498615</t>
         </is>
       </c>
       <c r="U112" t="inlineStr">
@@ -22472,28 +22472,28 @@
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>4 of 24</t>
+          <t>3 of 24</t>
         </is>
       </c>
       <c r="AC112" t="n">
-        <v>74.0</v>
+        <v>54.0</v>
       </c>
       <c r="AD112" t="n">
-        <v>1.0</v>
+        <v>-4.0</v>
       </c>
       <c r="AE112" t="inlineStr">
         <is>
-          <t>CCGGG</t>
+          <t>TGAAA</t>
         </is>
       </c>
       <c r="AF112" t="inlineStr">
         <is>
-          <t>C/CT</t>
+          <t>CACCA/C</t>
         </is>
       </c>
       <c r="AG112" t="inlineStr">
         <is>
-          <t>CACAA</t>
+          <t>AAGTG</t>
         </is>
       </c>
     </row>
@@ -22582,7 +22582,7 @@
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>STAT3.1.in</t>
+          <t>GRCh37.p13_chr17_40498615</t>
         </is>
       </c>
       <c r="U113" t="inlineStr">
@@ -22702,7 +22702,7 @@
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>STAT3.1.in</t>
+          <t>GRCh37.p13_chr17_40498615</t>
         </is>
       </c>
       <c r="U114" t="inlineStr">
@@ -22822,7 +22822,7 @@
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U115" t="inlineStr">
@@ -22942,7 +22942,7 @@
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U116" t="inlineStr">
@@ -23062,7 +23062,7 @@
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U117" t="inlineStr">
@@ -23182,7 +23182,7 @@
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U118" t="inlineStr">
@@ -23302,7 +23302,7 @@
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U119" t="inlineStr">
@@ -23422,7 +23422,7 @@
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U120" t="inlineStr">
@@ -23542,7 +23542,7 @@
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U121" t="inlineStr">
@@ -23662,7 +23662,7 @@
       </c>
       <c r="S122" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U122" t="inlineStr">
@@ -23782,7 +23782,7 @@
       </c>
       <c r="S123" t="inlineStr">
         <is>
-          <t>STAT3.2.in__STAT3.3.in__STAT3.4.in</t>
+          <t>GRCh37.p13_chr17_40497540</t>
         </is>
       </c>
       <c r="U123" t="inlineStr">
